--- a/experiment_tracking.xlsx
+++ b/experiment_tracking.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>n1000000_f_init5_cont0_disc5_sep6p6_seed42</t>
+          <t>n1000000_f_init5_cont0_disc5_sep5p1_seed0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -513,11 +513,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0.99995754</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,12 +526,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>reports/n1000000_f_init5_cont0_disc5_sep6p6_seed42_mlp_001_tuning.db</t>
+          <t>reports/n1000000_f_init5_cont0_disc5_sep5p1_seed0_mlp_001_tuning.db</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>reports/figures/n1000000_f_init5_cont0_disc5_sep6p6_seed42/mlp</t>
+          <t>reports/figures/n1000000_f_init5_cont0_disc5_sep5p1_seed0/mlp</t>
         </is>
       </c>
     </row>
@@ -543,7 +543,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>n10000_f_init5_cont0_disc5_sep6p6_seed42</t>
+          <t>n1000000_f_init5_cont0_disc5_sep5p1_seed0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tuning</t>
+          <t>Final Training</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -563,25 +563,25 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0.99624</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>configs/tuning/mlp.yml</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>reports/n10000_f_init5_cont0_disc5_sep6p6_seed42_mlp_001_tuning.db</t>
+          <t>models/n1000000_f_init5_cont0_disc5_sep5p1_seed0_mlp_001_optimal_model_metrics.json</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>reports/figures/n10000_f_init5_cont0_disc5_sep6p6_seed42/mlp</t>
+          <t>reports/figures/n1000000_f_init5_cont0_disc5_sep5p1_seed0/mlp_final</t>
         </is>
       </c>
     </row>
